--- a/簡易用語集.xlsx
+++ b/簡易用語集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAJIMA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86470E-1DDF-4D97-9D26-AD7F63A6DF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EC46A5-1317-46B7-B3F6-D8034F44A36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C57CC04-EFC2-450A-9064-3CB8B7365DBC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="簡易用語集" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">簡易用語集!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">簡易用語集!$B$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>猫</t>
     <rPh sb="0" eb="1">
@@ -88,6 +88,13 @@
   </si>
   <si>
     <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -112,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +144,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -207,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,12 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,6 +247,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,133 +584,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195BC87D-EA5F-4AED-9BB3-F1CFD4751DAE}">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.59765625" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="100.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="4"/>
+    <col min="3" max="3" width="26.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.19921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
+      <c r="G1"/>
     </row>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f>PROPER(IF(ISBLANK(B3)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B3)),""))</f>
+      <c r="C3" s="8" t="str">
+        <f>IF(ISBLANK($B3)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B3)),"")</f>
         <v>Cat</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>REPLACE(C3,1,1,LOWER(LEFT(C3)))</f>
+        <f>SUBSTITUTE(PROPER(C3)," ","")</f>
+        <v>Cat</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>REPLACE(D3,1,1,LOWER(LEFT(D3)))</f>
         <v>cat</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E7" si="0">IF(ISBLANK(B3) =FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/wikipedia/summary2?word="&amp;_xlfn.ENCODEURL(B3)),"")</f>
+      <c r="F3" s="9" t="str">
+        <f>IF(ISBLANK(B3) =FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/wikipedia/summary2?word="&amp;_xlfn.ENCODEURL(B3)),"")</f>
         <v>ネコは、狭義には食肉目ネコ科ネコ属に分類されるリビアヤマネコが家畜化されたイエネコ に対する通称である。</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f>PROPER(IF(ISBLANK(B4)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B4)),""))</f>
+      <c r="C4" s="8" t="str">
+        <f>IF(ISBLANK($B4)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B4)),"")</f>
         <v>Dog</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>REPLACE(C4,1,1,LOWER(LEFT(C4)))</f>
+        <f t="shared" ref="D3:D6" si="0">SUBSTITUTE(PROPER(C4)," ","")</f>
+        <v>Dog</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>REPLACE(D4,1,1,LOWER(LEFT(D4)))</f>
         <v>dog</v>
       </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" s="9" t="str">
+        <f>IF(ISBLANK(B4) =FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/wikipedia/summary2?word="&amp;_xlfn.ENCODEURL(B4)),"")</f>
         <v>イヌ は、食肉目・イヌ科・イヌ属に分類される哺乳類の一種である。</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f>PROPER(IF(ISBLANK(B5)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B5)),""))</f>
-        <v>Pile Of Rubble</v>
+      <c r="C5" s="8" t="str">
+        <f>IF(ISBLANK($B5)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B5)),"")</f>
+        <v>Pile of rubble</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" ref="D5:D7" si="1">REPLACE(C5,1,1,LOWER(LEFT(C5)))</f>
-        <v>pile Of Rubble</v>
-      </c>
-      <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>PileOfRubble</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" ref="E5:E8" si="1">REPLACE(D5,1,1,LOWER(LEFT(D5)))</f>
+        <v>pileOfRubble</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f t="shared" ref="F5:F7" si="2">IF(ISBLANK(B5) =FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/wikipedia/summary2?word="&amp;_xlfn.ENCODEURL(B5)),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f>PROPER(IF(ISBLANK(B6)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B6)),""))</f>
+      <c r="C6" s="8" t="str">
+        <f>IF(ISBLANK($B6)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B6)),"")</f>
         <v>Network</v>
       </c>
       <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Network</v>
+      </c>
+      <c r="E6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>network</v>
       </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">ネットワーク </v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f>PROPER(IF(ISBLANK(B7)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B7)),""))</f>
-        <v>Information Home Appliances</v>
+      <c r="C7" s="8" t="str">
+        <f>IF(ISBLANK($B7)=FALSE,_xlfn.WEBSERVICE("https://api.excelapi.org/translate/jaen?text="&amp;_xlfn.ENCODEURL($B7)),"")</f>
+        <v>Information home appliances</v>
       </c>
       <c r="D7" s="2" t="str">
+        <f>SUBSTITUTE(PROPER(C7)," ","")</f>
+        <v>InformationHomeAppliances</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>information Home Appliances</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <v>informationHomeAppliances</v>
+      </c>
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="2"/>
         <v>デジタル家庭電化製品とは、家庭用電気機械器具のうち、デジタル関連の技術を使用したもの。</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2" xr:uid="{195BC87D-EA5F-4AED-9BB3-F1CFD4751DAE}"/>
+  <autoFilter ref="B2:F2" xr:uid="{195BC87D-EA5F-4AED-9BB3-F1CFD4751DAE}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
